--- a/medicine/Enfance/Jérôme_Leroy_(écrivain)/Jérôme_Leroy_(écrivain).xlsx
+++ b/medicine/Enfance/Jérôme_Leroy_(écrivain)/Jérôme_Leroy_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+          <t>Jérôme_Leroy_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérôme Leroy, né le 29 août 1964 à Rouen, est un romancier et poète français, auteur de romans, de romans noirs, de romans pour la jeunesse et de poésie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+          <t>Jérôme_Leroy_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien professeur en zone d'éducation prioritaire à Roubaix « par choix, pendant près de vingt ans », Jérôme Leroy est décrit comme un « compagnon de route d’un communisme sans dogme, anar des chemins buissonniers[1] ». Après un premier roman, il découvre le néo-polar par l'intermédiaire de Frédéric Fajardie qui deviendra son ami[1].
-Il est l´auteur, en 2011, du roman Le Bloc[2] qui met en scène un parti d’extrême droite nommé « Bloc Patriotique », dirigé par Roland Dorgelles puis par sa fille Agnès Dorgelles. En 2017, il est co-scénariste du film Chez nous de Lucas Belvaux, adapté de son roman.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien professeur en zone d'éducation prioritaire à Roubaix « par choix, pendant près de vingt ans », Jérôme Leroy est décrit comme un « compagnon de route d’un communisme sans dogme, anar des chemins buissonniers ». Après un premier roman, il découvre le néo-polar par l'intermédiaire de Frédéric Fajardie qui deviendra son ami.
+Il est l´auteur, en 2011, du roman Le Bloc qui met en scène un parti d’extrême droite nommé « Bloc Patriotique », dirigé par Roland Dorgelles puis par sa fille Agnès Dorgelles. En 2017, il est co-scénariste du film Chez nous de Lucas Belvaux, adapté de son roman.
 En tant qu'auteur pour la jeunesse, il publie notamment Norlande (Syros, 2013), roman qui transpose la tuerie d'Utoya à travers le personnage d'une jeune fille qui se reconstruit après le massacre ; le roman rencontre le succès et reçoit de nombreux prix.
 Jérôme Leroy écrit aussi de la poésie.
-En novembre 2016, il rejoint le jury du prix littéraire des Hussards, au siège de Claude Cabanes, sous la présidence de Christian Millau[3].
-Depuis 2017, il est à l'origine d'une « Carte Noire » dans la collection « La petite vermillon » (La Table Ronde)[4], qui lui permet de rééditer des titres oubliés ou trop peu lus du roman noir français (Kââ, A. D. G., Hervé Prudon, Gérard Guégan et même Jacques Laurent) et dont il préface les différents volumes. Chez le même éditeur, il a préfacé la réédition de Daimler s'en va de Frédéric Berthet[5], parue en 2018 à l'occasion des trente ans du roman.
-Il a reçu de nombreux prix pour ses écrits (2011, prix de l'Académie française Maïse-Ploquin-Caunan pour Un dernier verre en Atlantide ; 2015, prix des lecteurs Quais du polar/20 minutes pour L'Ange gardien[6] ; 2017, prix Rive Gauche à Paris pour Un peu tard dans la saison).
-En 2022, lors du festival Etonnants Voyageurs à Saint-Malo, il reçoit pour son roman Vivonne (Éditions de la Table ronde), le Grand prix de l'Imaginaire 2022 dans la catégorie meilleur roman francophone[7].
+En novembre 2016, il rejoint le jury du prix littéraire des Hussards, au siège de Claude Cabanes, sous la présidence de Christian Millau.
+Depuis 2017, il est à l'origine d'une « Carte Noire » dans la collection « La petite vermillon » (La Table Ronde), qui lui permet de rééditer des titres oubliés ou trop peu lus du roman noir français (Kââ, A. D. G., Hervé Prudon, Gérard Guégan et même Jacques Laurent) et dont il préface les différents volumes. Chez le même éditeur, il a préfacé la réédition de Daimler s'en va de Frédéric Berthet, parue en 2018 à l'occasion des trente ans du roman.
+Il a reçu de nombreux prix pour ses écrits (2011, prix de l'Académie française Maïse-Ploquin-Caunan pour Un dernier verre en Atlantide ; 2015, prix des lecteurs Quais du polar/20 minutes pour L'Ange gardien ; 2017, prix Rive Gauche à Paris pour Un peu tard dans la saison).
+En 2022, lors du festival Etonnants Voyageurs à Saint-Malo, il reçoit pour son roman Vivonne (Éditions de la Table ronde), le Grand prix de l'Imaginaire 2022 dans la catégorie meilleur roman francophone.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+          <t>Jérôme_Leroy_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1990 : L'Orange de Malte, Le Rocher - Prix du Quartier Latin- 2016 ; nouvelle édition augmentée, préface de Sébastien Lapaque, éditions La Thébaïde, 190 p.  (ISBN 979-10-94295-03-8)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1990 : L'Orange de Malte, Le Rocher - Prix du Quartier Latin- 2016 ; nouvelle édition augmentée, préface de Sébastien Lapaque, éditions La Thébaïde, 190 p.  (ISBN 979-10-94295-03-8)
 1994 : Le Cimetière des plaisirs, Le Rocher ; rééd. coll. « La petite vermillon », mars 2019
 1997 : Monnaie bleue, Le Rocher ; rééd. 2009, La Table ronde, coll. « La petite vermillon »
 2000 : Big sister, Librio ; rééd. 2004, Mille et une nuits, coll. « La petite collection »
@@ -561,37 +580,177 @@
 2008 : La Minute prescrite pour l'assaut, Mille et une nuits ; rééd. coll. « La petite vermillon », janvier 2017
 2009 : En harmonie, Équateurs
 2009 : À vos Marx, prêts, partez !, éditions Baleine, coll. « Le Poulpe » no 260
-2011 : Le Bloc, Gallimard, coll. « Série noire »[8] - Prix Michel-Lebrun 2012 ; rééd. Folio policier no 707, 2013
+2011 : Le Bloc, Gallimard, coll. « Série noire » - Prix Michel-Lebrun 2012 ; rééd. Folio policier no 707, 2013
 (de) Der Block, trad. Cornelia Wend. Nautilus, Hambourg 2017
-2014 : L'Ange gardien, Gallimard, coll. « Série noire » - Prix des lecteurs Quais du polar/20 minutes 2015[9] ; rééd. Folio policier no 790, 2016
+2014 : L'Ange gardien, Gallimard, coll. « Série noire » - Prix des lecteurs Quais du polar/20 minutes 2015 ; rééd. Folio policier no 790, 2016
 2015 : Jugan, La Table ronde ; rééd. Folio 2017
-2017 : Un peu tard dans la saison, La Table ronde - Prix Rive Gauche à Paris 2017[10] ; rééd. Folio policier no 915, 2020
-2018 : Terminus Nord, une nouvelle aventure de Nestor Burma, French Pulp éditions[11]
+2017 : Un peu tard dans la saison, La Table ronde - Prix Rive Gauche à Paris 2017 ; rééd. Folio policier no 915, 2020
+2018 : Terminus Nord, une nouvelle aventure de Nestor Burma, French Pulp éditions
 2018 : La Petite Gauloise, La Manufacture de livres ; rééd. Folio policier no 879, 2019  (ISBN 978-2-3588-7253-9)
 2021 : Vivonne, La Table ronde (Grand prix de l'Imaginaire 2022) ; rééd. Folio SF no 738, 2023
 2022 : Terminus Leipzig, Éditions Points (en collaboration avec Max Annas)
-2022 : Les Derniers Jours des fauves, La Manufacture de livres ; Prix Mystère de la critique 2023, Folio policier no 985, 2023
-Poésie
-2006 : Le Déclenchement muet des opérations cannibales, Équateurs[12]
+2022 : Les Derniers Jours des fauves, La Manufacture de livres ; Prix Mystère de la critique 2023, Folio policier no 985, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2006 : Le Déclenchement muet des opérations cannibales, Équateurs
 2010 : Un dernier verre en Atlantide, La Table ronde - Prix Maïse-Ploquin-Caunan de l'Académie française, 2011
 2015 : Sauf dans les chansons, La Table ronde
 2019 : Nager vers la Norvège, La Table ronde
-2023: Le Petit Nulle part  (Tirage unique limité à 150 exemplaires, Aérolithe éditions[13])
-2024: Et des dizaines d'étés dorés, Éditions de la Table ronde, prix Saint-Lary de poésie 2024[14]
-Romans jeunesse
-2006 : La Princesse et le Viking, Syros, coll. « Souris noire »
+2023: Le Petit Nulle part  (Tirage unique limité à 150 exemplaires, Aérolithe éditions)
+2024: Et des dizaines d'étés dorés, Éditions de la Table ronde, prix Saint-Lary de poésie 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2006 : La Princesse et le Viking, Syros, coll. « Souris noire »
 2007 : La Grande Môme, Syros, coll. « Rat noir » - Prix du polar Jeunesse 2008
-2013 : Norlande, Syros, coll. « Rat noir » - Prix des collégiens du Doubs 2013, prix NRP de littérature jeunesse 2013-2014, prix littéraire des Maisons familiales rurales du Maine-et-Loire 2014[15], prix Jean-Claude-Izzo 2014[16],[17], prix spécial du jury des collégiens Livre-Franche 2014[18] ; rééd. en poche en juillet 2021 dans la coll. « Points »[19], aux éditions du Seuil
+2013 : Norlande, Syros, coll. « Rat noir » - Prix des collégiens du Doubs 2013, prix NRP de littérature jeunesse 2013-2014, prix littéraire des Maisons familiales rurales du Maine-et-Loire 2014, prix Jean-Claude-Izzo 2014 prix spécial du jury des collégiens Livre-Franche 2014 ; rééd. en poche en juillet 2021 dans la coll. « Points », aux éditions du Seuil
 2016 : Macha ou l'évasion, Syros
-2018 : Les Filles de la pluie, Syros
-Cycle Lou, après tout
-2019 : Le Grand Effondrement, Syros - Prix 1001 feuilles ados 2021 de Lamballe-Armor[20]- Prix Pierre Bottero 2022[21]
+2018 : Les Filles de la pluie, Syros</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cycle Lou, après tout</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2019 : Le Grand Effondrement, Syros - Prix 1001 feuilles ados 2021 de Lamballe-Armor- Prix Pierre Bottero 2022
 2019 : La Communauté, Syros
 2020 : La Bataille de la douceur, Syros
 2021 : Meurtre dans la douceur, nouvelle parue dans l’anthologie Renaissances : 6 histoires qui réinventent le monde, coédition Syros/Cité des sciences et de l'industrie
-2023: Histoire de la fille qui ne voulait tuer personne (Syros)
-Nouvelles
-1996 : Requiem en Pays d'Auge, Le Rocher
+2023: Histoire de la fille qui ne voulait tuer personne (Syros)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1996 : Requiem en Pays d'Auge, Le Rocher
 1996 : Départementales, Le Rocher
 1999 : Une si douce apocalypse, Les Belles Lettres, coll. « Le Cabinet noir »
 1999 : La Grâce efficace, Manitoba/Les Belles Lettres, coll. « Le Cabinet noir »
@@ -601,56 +760,163 @@
 2006 : Rêves de cristal. Arques, 2064, Mille et une nuits, coll. « La petite collection »
 2007 : Comme un fauteuil Voltaire dans une bibliothèque en ruines, Mille et une nuits ; rééd. coll. « La petite vermillon », janvier 2017
 2013 : Dernières nouvelles de l'enfer, L'Archipel
-2015 : Les Jours d'après, contes noirs, La Table ronde, coll. « La petite vermillon »
-Essais
-1994 : Frédéric H. Fajardie, Le Rocher[22]
+2015 : Les Jours d'après, contes noirs, La Table ronde, coll. « La petite vermillon »</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1994 : Frédéric H. Fajardie, Le Rocher
 2010 : Physiologie des lunettes noires, Mille et une nuits
-2010 : Le Dictionnaire des personnages populaires de la littérature des XIXe et XXe siècles, Le Seuil Ouvrage collectif dirigé par Stéfanie Delestré et Hagar Desanti.2016 : Loin devant !, L'Éditeur
-Cinéma
-2017 : Chez nous de Lucas Belvaux : co-scénariste</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+2010 : Le Dictionnaire des personnages populaires de la littérature des XIXe et XXe siècles, Le Seuil Ouvrage collectif dirigé par Stéfanie Delestré et Hagar Desanti.2016 : Loin devant !, L'Éditeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2017 : Chez nous de Lucas Belvaux : co-scénariste</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et nominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Maïse-Ploquin-Caunan 2011 pour Un dernier verre en Atlantide[23]
-Prix Michel-Lebrun 2012 pour Le Bloc[24]
-Prix des lecteurs Quais du polar 2015 pour L’Ange gardien[25]
-Prix Rive Gauche à Paris 2017 pour Un peu tard dans la saison[26]
-Prix Pierre Bottero 2022 pour Lou après tout, le Grand effondrement[27]
-Grand prix de l'Imaginaire 2022 pour Vivonne[28]
-Prix Mystère de la critique 2023 pour Les Derniers Jours des fauves [29]
-Grand prix de l'Imaginaire 2024, catégorie Roman jeunesse francophone pour Histoire de la fille qui ne voulait tuer personne[30]
-Nominations
-Prix Renaudot 2015 pour Jugan[31]
-Prix Landerneau 2022 pour Les Derniers Jours des fauves[32]
-Grand Prix de littérature policière 2022 pour Les Derniers Jours des fauves[33]
-Trophée 813 2023 du roman francophone pour Les Derniers Jours des fauves[34]</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Maïse-Ploquin-Caunan 2011 pour Un dernier verre en Atlantide
+Prix Michel-Lebrun 2012 pour Le Bloc
+Prix des lecteurs Quais du polar 2015 pour L’Ange gardien
+Prix Rive Gauche à Paris 2017 pour Un peu tard dans la saison
+Prix Pierre Bottero 2022 pour Lou après tout, le Grand effondrement
+Grand prix de l'Imaginaire 2022 pour Vivonne
+Prix Mystère de la critique 2023 pour Les Derniers Jours des fauves 
+Grand prix de l'Imaginaire 2024, catégorie Roman jeunesse francophone pour Histoire de la fille qui ne voulait tuer personne</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jérôme_Leroy_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%B4me_Leroy_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Prix et nominations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix Renaudot 2015 pour Jugan
+Prix Landerneau 2022 pour Les Derniers Jours des fauves
+Grand Prix de littérature policière 2022 pour Les Derniers Jours des fauves
+Trophée 813 2023 du roman francophone pour Les Derniers Jours des fauves</t>
         </is>
       </c>
     </row>
